--- a/basics/data_instron/test_expAna.xlsx
+++ b/basics/data_instron/test_expAna.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t xml:space="preserve">folder name (string)</t>
   </si>
@@ -251,21 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">outlier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaque number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specimens from the same plaque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaque thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test6, Test7, Test8, Test9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test1, Test2, Test3, Test4, Test5</t>
   </si>
 </sst>
 </file>
@@ -579,15 +564,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ33"/>
+  <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H44" activeCellId="0" sqref="H44"/>
+      <selection pane="topRight" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.33"/>
@@ -1367,33 +1352,6 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
